--- a/p_parameters/archive_parameters/duration_MoI.xlsx
+++ b/p_parameters/archive_parameters/duration_MoI.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="83">
   <si>
     <t>Descrizione prodotto</t>
   </si>
@@ -184,6 +184,90 @@
   </si>
   <si>
     <t>automatic_conversion</t>
+  </si>
+  <si>
+    <t>041225018</t>
+  </si>
+  <si>
+    <t>041225020</t>
+  </si>
+  <si>
+    <t>041225032</t>
+  </si>
+  <si>
+    <t>041225095</t>
+  </si>
+  <si>
+    <t>041225145</t>
+  </si>
+  <si>
+    <t>038744076</t>
+  </si>
+  <si>
+    <t>038744138</t>
+  </si>
+  <si>
+    <t>038744189</t>
+  </si>
+  <si>
+    <t>038744278</t>
+  </si>
+  <si>
+    <t>048104095</t>
+  </si>
+  <si>
+    <t>048343038</t>
+  </si>
+  <si>
+    <t>049197015</t>
+  </si>
+  <si>
+    <t>049224037</t>
+  </si>
+  <si>
+    <t>049224102</t>
+  </si>
+  <si>
+    <t>049224126</t>
+  </si>
+  <si>
+    <t>049224239</t>
+  </si>
+  <si>
+    <t>049224328</t>
+  </si>
+  <si>
+    <t>049651019</t>
+  </si>
+  <si>
+    <t>049651033</t>
+  </si>
+  <si>
+    <t>049651045</t>
+  </si>
+  <si>
+    <t>049651058</t>
+  </si>
+  <si>
+    <t>049674068</t>
+  </si>
+  <si>
+    <t>049674120</t>
+  </si>
+  <si>
+    <t>049674144</t>
+  </si>
+  <si>
+    <t>049674221</t>
+  </si>
+  <si>
+    <t>049674284</t>
+  </si>
+  <si>
+    <t>049793096</t>
+  </si>
+  <si>
+    <t>050706011</t>
   </si>
 </sst>
 </file>
@@ -219,18 +303,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -245,15 +323,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -539,10 +620,10 @@
   <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="K24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="J23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N32" sqref="N32"/>
+      <selection pane="bottomRight" activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -581,7 +662,7 @@
       <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="4" t="s">
         <v>10</v>
       </c>
       <c r="M1" s="1" t="s">
@@ -595,40 +676,40 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
-        <v>41225018</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="J2" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" s="3" t="s">
+      <c r="E2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="J2" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M2">
@@ -643,40 +724,40 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
-        <v>41225020</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="J3" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L3" s="3" t="s">
+      <c r="E3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="J3" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M3">
@@ -686,45 +767,45 @@
         <v>0.5</v>
       </c>
       <c r="O3">
-        <f t="shared" ref="O3:O42" si="0">IF(L3= "numero compresse dispensate / 2",0.5,1)</f>
+        <f t="shared" ref="O3:O29" si="0">IF(L3= "numero compresse dispensate / 2",0.5,1)</f>
         <v>0.5</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
-        <v>41225032</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="A4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="J4" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L4" s="3" t="s">
+      <c r="E4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="J4" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M4">
@@ -739,40 +820,40 @@
       </c>
     </row>
     <row r="5" spans="1:15" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
-        <v>41225095</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="A5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="3">
+      <c r="E5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="2">
         <v>5</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="2">
         <v>5</v>
       </c>
-      <c r="K5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L5" s="3" t="s">
+      <c r="K5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M5">
@@ -787,40 +868,40 @@
       </c>
     </row>
     <row r="6" spans="1:15" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
-        <v>41225145</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="A6" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="3">
+      <c r="E6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="2">
         <v>5</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="2">
         <v>5</v>
       </c>
-      <c r="K6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L6" s="3" t="s">
+      <c r="K6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M6">
@@ -835,40 +916,40 @@
       </c>
     </row>
     <row r="7" spans="1:15" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
-        <v>38744076</v>
-      </c>
-      <c r="B7" s="3" t="s">
+      <c r="A7" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="3" t="s">
+      <c r="C7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="3">
+      <c r="E7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="2">
         <v>10</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="2">
         <v>10</v>
       </c>
-      <c r="K7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L7" s="3" t="s">
+      <c r="K7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L7" s="2" t="s">
         <v>25</v>
       </c>
       <c r="M7">
@@ -883,40 +964,40 @@
       </c>
     </row>
     <row r="8" spans="1:15" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
-        <v>38744138</v>
-      </c>
-      <c r="B8" s="3" t="s">
+      <c r="A8" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="C8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" s="3">
-        <v>15</v>
-      </c>
-      <c r="J8" s="3">
-        <v>15</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L8" s="3" t="s">
+      <c r="E8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="2">
+        <v>15</v>
+      </c>
+      <c r="J8" s="2">
+        <v>15</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M8">
@@ -931,40 +1012,40 @@
       </c>
     </row>
     <row r="9" spans="1:15" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
-        <v>38744189</v>
-      </c>
-      <c r="B9" s="3" t="s">
+      <c r="A9" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="3" t="s">
+      <c r="C9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" s="3">
+      <c r="E9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="2">
         <v>20</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="2">
         <v>20</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L9" s="3" t="s">
+      <c r="K9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L9" s="2" t="s">
         <v>25</v>
       </c>
       <c r="M9">
@@ -979,40 +1060,40 @@
       </c>
     </row>
     <row r="10" spans="1:15" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
-        <v>38744278</v>
-      </c>
-      <c r="B10" s="3" t="s">
+      <c r="A10" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="3" t="s">
+      <c r="C10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I10" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="J10" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L10" s="3" t="s">
+      <c r="E10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="J10" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10">
@@ -1027,40 +1108,40 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
-        <v>48104095</v>
-      </c>
-      <c r="B11" s="3" t="s">
+      <c r="A11" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="3" t="s">
+      <c r="C11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I11" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="J11" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L11" s="3" t="s">
+      <c r="E11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="J11" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11">
@@ -1075,40 +1156,40 @@
       </c>
     </row>
     <row r="12" spans="1:15" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
-        <v>48343038</v>
-      </c>
-      <c r="B12" s="3" t="s">
+      <c r="A12" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="3" t="s">
+      <c r="C12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I12" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="J12" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L12" s="3" t="s">
+      <c r="E12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="J12" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12">
@@ -1123,40 +1204,40 @@
       </c>
     </row>
     <row r="13" spans="1:15" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
-        <v>49197015</v>
-      </c>
-      <c r="B13" s="3" t="s">
+      <c r="A13" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="3" t="s">
+      <c r="C13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I13" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="J13" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L13" s="3" t="s">
+      <c r="E13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="J13" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13">
@@ -1171,40 +1252,40 @@
       </c>
     </row>
     <row r="14" spans="1:15" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
-        <v>49224037</v>
-      </c>
-      <c r="B14" s="3" t="s">
+      <c r="A14" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="3" t="s">
+      <c r="C14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I14" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="J14" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L14" s="3" t="s">
+      <c r="E14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="J14" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M14">
@@ -1219,40 +1300,40 @@
       </c>
     </row>
     <row r="15" spans="1:15" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
-        <v>49224102</v>
-      </c>
-      <c r="B15" s="3" t="s">
+      <c r="A15" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="3" t="s">
+      <c r="C15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I15" s="3">
+      <c r="E15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="2">
         <v>10</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="2">
         <v>10</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L15" s="3" t="s">
+      <c r="K15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L15" s="2" t="s">
         <v>25</v>
       </c>
       <c r="M15">
@@ -1267,40 +1348,40 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
-        <v>49224126</v>
-      </c>
-      <c r="B16" s="3" t="s">
+      <c r="A16" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="3" t="s">
+      <c r="C16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I16" s="3">
+      <c r="E16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="2">
         <v>10</v>
       </c>
-      <c r="J16" s="3">
+      <c r="J16" s="2">
         <v>10</v>
       </c>
-      <c r="K16" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L16" s="3" t="s">
+      <c r="K16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L16" s="2" t="s">
         <v>25</v>
       </c>
       <c r="M16">
@@ -1315,40 +1396,40 @@
       </c>
     </row>
     <row r="17" spans="1:15" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A17" s="3">
-        <v>49224239</v>
-      </c>
-      <c r="B17" s="3" t="s">
+      <c r="A17" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="3" t="s">
+      <c r="C17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I17" s="3">
-        <v>15</v>
-      </c>
-      <c r="J17" s="3">
-        <v>15</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L17" s="3" t="s">
+      <c r="E17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="2">
+        <v>15</v>
+      </c>
+      <c r="J17" s="2">
+        <v>15</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M17">
@@ -1363,40 +1444,40 @@
       </c>
     </row>
     <row r="18" spans="1:15" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
-        <v>49224328</v>
-      </c>
-      <c r="B18" s="3" t="s">
+      <c r="A18" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="3" t="s">
+      <c r="C18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I18" s="3">
+      <c r="E18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" s="2">
         <v>20</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J18" s="2">
         <v>20</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L18" s="3" t="s">
+      <c r="K18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L18" s="2" t="s">
         <v>25</v>
       </c>
       <c r="M18">
@@ -1411,40 +1492,40 @@
       </c>
     </row>
     <row r="19" spans="1:15" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A19" s="3">
-        <v>49651019</v>
-      </c>
-      <c r="B19" s="3" t="s">
+      <c r="A19" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" s="3" t="s">
+      <c r="C19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I19" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="J19" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L19" s="3" t="s">
+      <c r="E19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="J19" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M19">
@@ -1459,40 +1540,40 @@
       </c>
     </row>
     <row r="20" spans="1:15" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="3">
-        <v>49651033</v>
-      </c>
-      <c r="B20" s="3" t="s">
+      <c r="A20" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" s="3" t="s">
+      <c r="C20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I20" s="3">
+      <c r="E20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" s="2">
         <v>10</v>
       </c>
-      <c r="J20" s="3">
+      <c r="J20" s="2">
         <v>10</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L20" s="3" t="s">
+      <c r="K20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L20" s="2" t="s">
         <v>25</v>
       </c>
       <c r="M20">
@@ -1507,40 +1588,40 @@
       </c>
     </row>
     <row r="21" spans="1:15" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A21" s="3">
-        <v>49651045</v>
-      </c>
-      <c r="B21" s="3" t="s">
+      <c r="A21" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" s="3" t="s">
+      <c r="C21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I21" s="3">
-        <v>15</v>
-      </c>
-      <c r="J21" s="3">
-        <v>15</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L21" s="3" t="s">
+      <c r="E21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I21" s="2">
+        <v>15</v>
+      </c>
+      <c r="J21" s="2">
+        <v>15</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L21" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M21">
@@ -1555,40 +1636,40 @@
       </c>
     </row>
     <row r="22" spans="1:15" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A22" s="3">
-        <v>49651058</v>
-      </c>
-      <c r="B22" s="3" t="s">
+      <c r="A22" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D22" s="3" t="s">
+      <c r="C22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I22" s="3">
+      <c r="E22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I22" s="2">
         <v>20</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J22" s="2">
         <v>20</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L22" s="3" t="s">
+      <c r="K22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L22" s="2" t="s">
         <v>25</v>
       </c>
       <c r="M22">
@@ -1603,40 +1684,40 @@
       </c>
     </row>
     <row r="23" spans="1:15" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A23" s="3">
-        <v>49674068</v>
-      </c>
-      <c r="B23" s="3" t="s">
+      <c r="A23" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D23" s="3" t="s">
+      <c r="C23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E23" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I23" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="J23" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L23" s="3" t="s">
+      <c r="E23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I23" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="J23" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L23" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M23">
@@ -1651,40 +1732,40 @@
       </c>
     </row>
     <row r="24" spans="1:15" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A24" s="3">
-        <v>49674120</v>
-      </c>
-      <c r="B24" s="3" t="s">
+      <c r="A24" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D24" s="3" t="s">
+      <c r="C24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I24" s="3">
+      <c r="E24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I24" s="2">
         <v>10</v>
       </c>
-      <c r="J24" s="3">
+      <c r="J24" s="2">
         <v>10</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L24" s="3" t="s">
+      <c r="K24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L24" s="2" t="s">
         <v>25</v>
       </c>
       <c r="M24">
@@ -1699,40 +1780,40 @@
       </c>
     </row>
     <row r="25" spans="1:15" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A25" s="3">
-        <v>49674144</v>
-      </c>
-      <c r="B25" s="3" t="s">
+      <c r="A25" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D25" s="3" t="s">
+      <c r="C25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E25" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I25" s="3">
+      <c r="E25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I25" s="2">
         <v>10</v>
       </c>
-      <c r="J25" s="3">
+      <c r="J25" s="2">
         <v>10</v>
       </c>
-      <c r="K25" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L25" s="3" t="s">
+      <c r="K25" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L25" s="2" t="s">
         <v>25</v>
       </c>
       <c r="M25">
@@ -1747,40 +1828,40 @@
       </c>
     </row>
     <row r="26" spans="1:15" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A26" s="3">
-        <v>49674221</v>
-      </c>
-      <c r="B26" s="3" t="s">
+      <c r="A26" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D26" s="3" t="s">
+      <c r="C26" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E26" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I26" s="3">
-        <v>15</v>
-      </c>
-      <c r="J26" s="3">
-        <v>15</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L26" s="3" t="s">
+      <c r="E26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I26" s="2">
+        <v>15</v>
+      </c>
+      <c r="J26" s="2">
+        <v>15</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L26" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M26">
@@ -1795,40 +1876,40 @@
       </c>
     </row>
     <row r="27" spans="1:15" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A27" s="3">
-        <v>49674284</v>
-      </c>
-      <c r="B27" s="3" t="s">
+      <c r="A27" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D27" s="3" t="s">
+      <c r="C27" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E27" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I27" s="3">
+      <c r="E27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I27" s="2">
         <v>20</v>
       </c>
-      <c r="J27" s="3">
+      <c r="J27" s="2">
         <v>20</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L27" s="3" t="s">
+      <c r="K27" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L27" s="2" t="s">
         <v>25</v>
       </c>
       <c r="M27">
@@ -1843,40 +1924,40 @@
       </c>
     </row>
     <row r="28" spans="1:15" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A28" s="3">
-        <v>49793096</v>
-      </c>
-      <c r="B28" s="3" t="s">
+      <c r="A28" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D28" s="3" t="s">
+      <c r="C28" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E28" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I28" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="J28" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="K28" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L28" s="3" t="s">
+      <c r="E28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I28" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="J28" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L28" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M28">
@@ -1891,40 +1972,40 @@
       </c>
     </row>
     <row r="29" spans="1:15" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A29" s="3">
-        <v>50706011</v>
-      </c>
-      <c r="B29" s="3" t="s">
+      <c r="A29" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D29" s="3" t="s">
+      <c r="C29" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I29" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="J29" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L29" s="3" t="s">
+      <c r="E29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I29" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="J29" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L29" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M29">
